--- a/va_facility_data_2025-02-20/Jamestown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jamestown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jamestown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jamestown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Red3623db8bef404f8a784d46bce60e41"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R94526bbaa6934839a13297413b69c1c8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf322253c2ccc43f9add3cbbcda1be516"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfacb81a12d4443e69001dc8abb890256"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R25ae325bcdc4455dbb82d78fa69b8df5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0567a231de5b4c31b3ae1bef793f085b"/>
   </x:sheets>
 </x:workbook>
 </file>
